--- a/data/excel/२०२४/११/१९.xlsx
+++ b/data/excel/२०२४/११/१९.xlsx
@@ -64,34 +64,37 @@
     <t>६५.००</t>
   </si>
   <si>
+    <t>के जी</t>
+  </si>
+  <si>
+    <t>८३.७५</t>
+  </si>
+  <si>
     <t>गोलभेडा सानो(टनेल)</t>
   </si>
   <si>
-    <t>के जी</t>
-  </si>
-  <si>
-    <t>८३.७५</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
     <t>८०.००</t>
   </si>
   <si>
+    <t>आलु रातो</t>
+  </si>
+  <si>
     <t>७५.००</t>
   </si>
   <si>
     <t>७२.३३</t>
   </si>
   <si>
-    <t>आलु रातो</t>
+    <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
     <t>६७.६७</t>
   </si>
   <si>
-    <t>आलु रातो(भारतीय)</t>
+    <t>६२.००</t>
   </si>
   <si>
     <t>५५.००</t>
@@ -103,7 +106,7 @@
     <t>आलु सेतो</t>
   </si>
   <si>
-    <t>६२.००</t>
+    <t>११०.००</t>
   </si>
   <si>
     <t>१०५.००</t>
@@ -115,9 +118,6 @@
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
-    <t>११०.००</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>१४५.००</t>
   </si>
   <si>
+    <t>१३५.००</t>
+  </si>
+  <si>
     <t>गाजर(तराई)</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t>१३०.००</t>
   </si>
   <si>
-    <t>१३५.००</t>
-  </si>
-  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
@@ -163,15 +163,15 @@
     <t>८५.००</t>
   </si>
   <si>
+    <t>४०.००</t>
+  </si>
+  <si>
+    <t>४५.००</t>
+  </si>
+  <si>
     <t>मूला रातो</t>
   </si>
   <si>
-    <t>४०.००</t>
-  </si>
-  <si>
-    <t>४५.००</t>
-  </si>
-  <si>
     <t>मूला सेतो(लोकल)</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>मकै बोडी</t>
   </si>
   <si>
+    <t>मटरकोशा</t>
+  </si>
+  <si>
     <t>१२५.००</t>
   </si>
   <si>
-    <t>मटरकोशा</t>
-  </si>
-  <si>
     <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>१५५.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
     <t>१६०.००</t>
   </si>
   <si>
-    <t>१५५.००</t>
-  </si>
-  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>मेथीको साग</t>
   </si>
   <si>
+    <t>१२६.६७</t>
+  </si>
+  <si>
     <t>प्याज हरियो</t>
   </si>
   <si>
-    <t>१२६.६७</t>
-  </si>
-  <si>
     <t>बकूला</t>
   </si>
   <si>
@@ -313,18 +313,18 @@
     <t>२२६.६७</t>
   </si>
   <si>
+    <t>३२५.००</t>
+  </si>
+  <si>
+    <t>३००.००</t>
+  </si>
+  <si>
+    <t>३१३.३३</t>
+  </si>
+  <si>
     <t>च्याउ(डल्ले)</t>
   </si>
   <si>
-    <t>३२५.००</t>
-  </si>
-  <si>
-    <t>३००.००</t>
-  </si>
-  <si>
-    <t>३१३.३३</t>
-  </si>
-  <si>
     <t>कुरीलो</t>
   </si>
   <si>
@@ -349,6 +349,9 @@
     <t>जिरीको साग</t>
   </si>
   <si>
+    <t>सेलरी</t>
+  </si>
+  <si>
     <t>६००.००</t>
   </si>
   <si>
@@ -358,7 +361,10 @@
     <t>५५०.००</t>
   </si>
   <si>
-    <t>सेलरी</t>
+    <t>पार्सले</t>
+  </si>
+  <si>
+    <t>१८००.००</t>
   </si>
   <si>
     <t>१५००.००</t>
@@ -367,12 +373,6 @@
     <t>१६३३.३३</t>
   </si>
   <si>
-    <t>पार्सले</t>
-  </si>
-  <si>
-    <t>१८००.००</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -406,15 +406,15 @@
     <t>गुन्दुक</t>
   </si>
   <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
     <t>स्याउ(झोले)</t>
   </si>
   <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
-    <t>२४०.००</t>
-  </si>
-  <si>
     <t>२८०.००</t>
   </si>
   <si>
@@ -424,18 +424,21 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>केरा</t>
+  </si>
+  <si>
     <t>दर्जन</t>
   </si>
   <si>
     <t>१७०.००</t>
   </si>
   <si>
-    <t>केरा</t>
-  </si>
-  <si>
     <t>कागती</t>
   </si>
   <si>
+    <t>३९०.००</t>
+  </si>
+  <si>
     <t>अनार</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>३८०.००</t>
   </si>
   <si>
-    <t>३९०.००</t>
-  </si>
-  <si>
     <t>अंगुर(कालो)</t>
   </si>
   <si>
@@ -463,27 +463,27 @@
     <t>मौसम</t>
   </si>
   <si>
+    <t>३२६.६७</t>
+  </si>
+  <si>
     <t>जुनार</t>
   </si>
   <si>
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३२६.६७</t>
+    <t>प्रति गोटा</t>
+  </si>
+  <si>
+    <t>१८०.००</t>
+  </si>
+  <si>
+    <t>१९०.००</t>
   </si>
   <si>
     <t>भुई कटहर</t>
   </si>
   <si>
-    <t>प्रति गोटा</t>
-  </si>
-  <si>
-    <t>१८०.००</t>
-  </si>
-  <si>
-    <t>१९०.००</t>
-  </si>
-  <si>
     <t>काक्रो(लोकल)</t>
   </si>
   <si>
@@ -493,24 +493,24 @@
     <t>निबुवा</t>
   </si>
   <si>
+    <t>नासपाती(चाइनिज)</t>
+  </si>
+  <si>
     <t>२३०.००</t>
   </si>
   <si>
-    <t>नासपाती(चाइनिज)</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>अम्बा</t>
+  </si>
+  <si>
     <t>१६३.३३</t>
   </si>
   <si>
-    <t>अम्बा</t>
-  </si>
-  <si>
     <t>लप्सी</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>लसुन सुकेको चाइनिज</t>
+  </si>
+  <si>
+    <t>३२०.००</t>
+  </si>
+  <si>
     <t>३१०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको चाइनिज</t>
-  </si>
-  <si>
-    <t>३२०.००</t>
-  </si>
-  <si>
     <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
@@ -589,10 +589,10 @@
     <t>३५१.६७</t>
   </si>
   <si>
+    <t>२६३.३३</t>
+  </si>
+  <si>
     <t>ताजा माछा(बचुवा)</t>
-  </si>
-  <si>
-    <t>२६३.३३</t>
   </si>
   <si>
     <t>ताजा माछा(छडी)</t>
@@ -973,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1013,19 +1013,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1033,10 +1033,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1053,19 +1053,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1073,19 +1073,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1113,19 +1113,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1145,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1156,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1165,7 +1165,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1222,10 +1222,10 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -1239,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -1256,10 +1256,10 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
@@ -1282,10 +1282,10 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1336,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1345,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1353,19 +1353,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1396,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1416,7 +1416,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -1425,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -1516,16 +1516,16 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1542,10 +1542,10 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
@@ -1602,10 +1602,10 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -1616,7 +1616,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1625,7 +1625,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -1645,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -1653,19 +1653,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -1702,10 +1702,10 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
         <v>50</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -1725,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1762,10 +1762,10 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
         <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="44">
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1825,7 +1825,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1865,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1879,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
@@ -1933,19 +1933,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>100</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -1985,7 +1985,7 @@
         <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
@@ -2005,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2045,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -2053,19 +2053,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
         <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59">
@@ -2073,19 +2073,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>118</v>
-      </c>
-      <c r="E59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -2122,7 +2122,7 @@
         <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
         <v>122</v>
@@ -2145,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -2159,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -2202,7 +2202,7 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>126</v>
@@ -2219,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
         <v>96</v>
@@ -2233,16 +2233,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
         <v>130</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>131</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
       </c>
       <c r="F67" t="s">
         <v>96</v>
@@ -2256,10 +2256,10 @@
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
@@ -2273,19 +2273,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" t="s">
-        <v>137</v>
       </c>
       <c r="E69" t="s">
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -2299,7 +2299,7 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -2313,19 +2313,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s">
         <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -2336,16 +2336,16 @@
         <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
@@ -2359,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2376,10 +2376,10 @@
         <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2419,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E76" t="s">
         <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
@@ -2433,19 +2433,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78">
@@ -2453,19 +2453,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
         <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>153</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
       </c>
       <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
         <v>154</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79">
@@ -2496,7 +2496,7 @@
         <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2522,10 +2522,10 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
         <v>50</v>
-      </c>
-      <c r="F81" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="82">
@@ -2533,19 +2533,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
         <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
@@ -2562,10 +2562,10 @@
         <v>43</v>
       </c>
       <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
         <v>50</v>
-      </c>
-      <c r="F83" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="84">
@@ -2576,7 +2576,7 @@
         <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
         <v>45</v>
@@ -2585,7 +2585,7 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -2593,19 +2593,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
         <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
@@ -2622,10 +2622,10 @@
         <v>43</v>
       </c>
       <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" t="s">
         <v>50</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="87">
@@ -2639,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88">
@@ -2656,7 +2656,7 @@
         <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>96</v>
@@ -2725,7 +2725,7 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -2742,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
         <v>36</v>
@@ -2759,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
@@ -2785,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -2796,7 +2796,7 @@
         <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
         <v>20</v>
@@ -2805,7 +2805,7 @@
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -2816,10 +2816,10 @@
         <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
         <v>96</v>
@@ -2842,7 +2842,7 @@
         <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
         <v>126</v>
@@ -2859,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
         <v>97</v>
@@ -2893,19 +2893,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
         <v>183</v>
       </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
         <v>184</v>
-      </c>
-      <c r="E100" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="101">
@@ -2919,13 +2919,13 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" t="s">
         <v>184</v>
-      </c>
-      <c r="E101" t="s">
-        <v>101</v>
-      </c>
-      <c r="F101" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="102">
@@ -2939,7 +2939,7 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
@@ -2956,7 +2956,7 @@
         <v>187</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
         <v>188</v>
@@ -2973,10 +2973,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -2985,7 +2985,7 @@
         <v>96</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105">
@@ -2996,16 +2996,16 @@
         <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
@@ -3019,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E106" t="s">
         <v>133</v>
